--- a/Inputs/Allianz_GlobalPass/benefits5.xlsx
+++ b/Inputs/Allianz_GlobalPass/benefits5.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="88">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">GlobalPass Individual Connect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dependsOn</t>
   </si>
   <si>
     <t xml:space="preserve">none</t>
@@ -387,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -480,6 +483,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -573,7 +582,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,6 +663,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -666,11 +679,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -751,13 +764,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.13"/>
@@ -781,64 +794,67 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -846,61 +862,61 @@
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -908,112 +924,112 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1021,112 +1037,112 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1134,78 +1150,78 @@
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1213,40 +1229,47 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="19"/>
       <c r="D30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="19"/>
+        <v>65</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1254,104 +1277,104 @@
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="20" t="s">
         <v>67</v>
       </c>
+      <c r="C32" s="21" t="s">
+        <v>68</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -1359,80 +1382,76 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>83</v>
+        <v>6</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>85</v>
+        <v>6</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
